--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1804433.946825469</v>
+        <v>-1807347.232077871</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12064126.59261771</v>
+        <v>12141584.2064527</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14981752.64195399</v>
+        <v>14987122.353543</v>
       </c>
     </row>
     <row r="11">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.63125007305896</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.15942171964163</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.75851419067499</v>
+        <v>42.43543635567276</v>
       </c>
       <c r="S5" t="n">
-        <v>3.414231837793466</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>99.3659807000892</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.89048308456501</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75851419067499</v>
+        <v>43.34241299346737</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>24.44969929914653</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.75851419067499</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="J7" t="n">
-        <v>27.75851419067499</v>
+        <v>39.11991388695564</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.44969929914652</v>
+        <v>21.92160590542659</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.90121237806091</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C8" t="n">
-        <v>239.8079481415052</v>
+        <v>191.4298910353894</v>
       </c>
       <c r="D8" t="n">
-        <v>239.8079481415052</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W8" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.4298910353895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>126.2674562572419</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>53.51064432605688</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.3906441189859</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W10" t="n">
-        <v>239.8079481415052</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.79588341486398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>7.238882005934558</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.1644063769637</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>286.8518683469698</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605491</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.93034877516568</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>200.6028050067863</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9345864167828</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>254.7594172453481</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.5942676301787</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>85.68348164116145</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188965</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389678</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>189.0833237787849</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7605104011701</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6861009032421</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674405</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.6576746544297</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.8488525946973</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>218.097472392356</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1933087134791</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>229.3424381628898</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>43.88318321982881</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>88.544528901685</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>99.04662187596679</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>73.6576746544297</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>98.57802548700637</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442991</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424848</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442991</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401432</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663652005</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368225</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2612,16 +2612,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2713,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659985</v>
@@ -2725,13 +2725,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424834</v>
@@ -2773,7 +2773,7 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843748</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368233</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2950,7 +2950,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659985</v>
@@ -2959,16 +2959,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.810845670716</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424834</v>
@@ -3010,7 +3010,7 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843766</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368233</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684696</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3086,7 +3086,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W32" t="n">
         <v>317.6307663651991</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894982</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3326,13 +3326,13 @@
         <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663652005</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707166</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453016</v>
+        <v>54.5262913945307</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,16 +3560,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179224</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262564</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187951</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3797,7 +3797,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179224</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645704</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663652005</v>
       </c>
       <c r="X44" t="n">
         <v>338.1208983262551</v>
@@ -4071,10 +4071,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
       <c r="C5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
       <c r="D5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
       <c r="E5" t="n">
-        <v>23.46862806591366</v>
+        <v>230.9449511212085</v>
       </c>
       <c r="F5" t="n">
-        <v>16.52312731671019</v>
+        <v>223.9994503720051</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220681135253999</v>
+        <v>116.2659709703097</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="L5" t="n">
-        <v>28.59126961639525</v>
+        <v>42.32056163037808</v>
       </c>
       <c r="M5" t="n">
-        <v>28.59126961639525</v>
+        <v>111.5857372823132</v>
       </c>
       <c r="N5" t="n">
-        <v>56.07219866516348</v>
+        <v>186.5855042696411</v>
       </c>
       <c r="O5" t="n">
-        <v>83.55312771393172</v>
+        <v>244.0703962453213</v>
       </c>
       <c r="P5" t="n">
-        <v>83.55312771393172</v>
+        <v>349.659979406923</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.0340567626999</v>
+        <v>426.6245784307137</v>
       </c>
       <c r="R5" t="n">
-        <v>82.99515353979592</v>
+        <v>383.7605013037715</v>
       </c>
       <c r="S5" t="n">
-        <v>79.54643451172171</v>
+        <v>383.7605013037715</v>
       </c>
       <c r="T5" t="n">
-        <v>51.50753128881769</v>
+        <v>383.7605013037715</v>
       </c>
       <c r="U5" t="n">
-        <v>23.46862806591366</v>
+        <v>383.7605013037715</v>
       </c>
       <c r="V5" t="n">
-        <v>23.46862806591366</v>
+        <v>383.7605013037715</v>
       </c>
       <c r="W5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
       <c r="X5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.46862806591366</v>
+        <v>276.0270219020762</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220681135253999</v>
+        <v>275.1108838841018</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220681135253999</v>
+        <v>275.1108838841018</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220681135253999</v>
+        <v>275.1108838841018</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220681135253999</v>
+        <v>275.1108838841018</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220681135253999</v>
+        <v>167.3774044824064</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220681135253999</v>
+        <v>67.00772700756883</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220681135253999</v>
+        <v>67.00772700756883</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="J6" t="n">
-        <v>29.70161018402224</v>
+        <v>48.11355752505167</v>
       </c>
       <c r="K6" t="n">
-        <v>29.70161018402224</v>
+        <v>57.93872361641815</v>
       </c>
       <c r="L6" t="n">
-        <v>29.70161018402224</v>
+        <v>117.4724130822196</v>
       </c>
       <c r="M6" t="n">
-        <v>42.43683091901972</v>
+        <v>206.3022888383538</v>
       </c>
       <c r="N6" t="n">
-        <v>69.91775996778796</v>
+        <v>311.8918719999555</v>
       </c>
       <c r="O6" t="n">
-        <v>83.55312771393172</v>
+        <v>386.2659167946424</v>
       </c>
       <c r="P6" t="n">
-        <v>83.55312771393172</v>
+        <v>426.6245784307137</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0340567626999</v>
+        <v>426.6245784307137</v>
       </c>
       <c r="R6" t="n">
-        <v>82.99515353979592</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="S6" t="n">
-        <v>82.99515353979592</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="T6" t="n">
-        <v>82.99515353979592</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="U6" t="n">
-        <v>54.9562503168919</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="V6" t="n">
-        <v>54.9562503168919</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="W6" t="n">
-        <v>26.91734709398787</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="X6" t="n">
-        <v>2.220681135253999</v>
+        <v>382.8443632857972</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.220681135253999</v>
+        <v>382.8443632857972</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="C7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="D7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="E7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="F7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="G7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="H7" t="n">
-        <v>30.25958435815803</v>
+        <v>155.7810355025881</v>
       </c>
       <c r="I7" t="n">
-        <v>30.25958435815803</v>
+        <v>48.0475561008927</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220681135253999</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="K7" t="n">
-        <v>29.70161018402224</v>
+        <v>8.532491568614274</v>
       </c>
       <c r="L7" t="n">
-        <v>29.70161018402224</v>
+        <v>114.1220747302159</v>
       </c>
       <c r="M7" t="n">
-        <v>29.70161018402224</v>
+        <v>219.7116578918175</v>
       </c>
       <c r="N7" t="n">
-        <v>56.07219866516348</v>
+        <v>325.3012410534192</v>
       </c>
       <c r="O7" t="n">
-        <v>83.55312771393172</v>
+        <v>426.6245784307137</v>
       </c>
       <c r="P7" t="n">
-        <v>111.0340567626999</v>
+        <v>426.6245784307137</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.33739080396609</v>
+        <v>404.481542162606</v>
       </c>
       <c r="R7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="S7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="T7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="U7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="V7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="W7" t="n">
-        <v>86.33739080396609</v>
+        <v>296.7480627609107</v>
       </c>
       <c r="X7" t="n">
-        <v>86.33739080396609</v>
+        <v>263.5145149042835</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.29848758106206</v>
+        <v>263.5145149042835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>523.6380156196625</v>
+        <v>232.5410406220655</v>
       </c>
       <c r="C8" t="n">
-        <v>281.4077649716775</v>
+        <v>39.17751432369236</v>
       </c>
       <c r="D8" t="n">
-        <v>39.17751432369238</v>
+        <v>39.17751432369236</v>
       </c>
       <c r="E8" t="n">
-        <v>39.17751432369238</v>
+        <v>39.17751432369236</v>
       </c>
       <c r="F8" t="n">
         <v>32.2320135744889</v>
       </c>
       <c r="G8" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H8" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470428</v>
+        <v>40.4188858447036</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192966</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605499</v>
+        <v>262.3106962605493</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859574</v>
+        <v>449.0101090859566</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779399</v>
+        <v>643.3443219779393</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948994</v>
+        <v>813.5133472948989</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444257</v>
+        <v>924.2476725444254</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S8" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T8" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U8" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V8" t="n">
-        <v>959.2317925660208</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="W8" t="n">
-        <v>717.0015419180357</v>
+        <v>474.7712912700505</v>
       </c>
       <c r="X8" t="n">
-        <v>717.0015419180357</v>
+        <v>474.7712912700505</v>
       </c>
       <c r="Y8" t="n">
-        <v>523.6380156196625</v>
+        <v>474.7712912700505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>730.2683927626747</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="C9" t="n">
-        <v>555.8153634815477</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="D9" t="n">
-        <v>406.8809538202964</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="E9" t="n">
-        <v>247.6434988148409</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="F9" t="n">
-        <v>120.1006137065158</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="G9" t="n">
-        <v>120.1006137065158</v>
+        <v>119.1406487459099</v>
       </c>
       <c r="H9" t="n">
-        <v>19.18463585132042</v>
+        <v>65.08949286100392</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K9" t="n">
         <v>86.79245551467744</v>
@@ -4890,43 +4890,43 @@
         <v>224.0220535303714</v>
       </c>
       <c r="M9" t="n">
-        <v>461.4319221904615</v>
+        <v>403.5193898849762</v>
       </c>
       <c r="N9" t="n">
-        <v>660.0886638431263</v>
+        <v>602.1761315376409</v>
       </c>
       <c r="O9" t="n">
-        <v>819.6009765118869</v>
+        <v>761.6884442064015</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640438</v>
+        <v>870.3780717337004</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R9" t="n">
-        <v>938.1198929682075</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="S9" t="n">
-        <v>938.1198929682075</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="T9" t="n">
-        <v>938.1198929682075</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="U9" t="n">
-        <v>938.1198929682075</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="V9" t="n">
-        <v>938.1198929682075</v>
+        <v>702.9677847364646</v>
       </c>
       <c r="W9" t="n">
-        <v>938.1198929682075</v>
+        <v>702.9677847364646</v>
       </c>
       <c r="X9" t="n">
-        <v>730.2683927626747</v>
+        <v>495.1162845309318</v>
       </c>
       <c r="Y9" t="n">
-        <v>730.2683927626747</v>
+        <v>287.3559857659779</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.05922361068303</v>
+        <v>496.2089627745054</v>
       </c>
       <c r="C10" t="n">
-        <v>37.05922361068303</v>
+        <v>327.2727798465985</v>
       </c>
       <c r="D10" t="n">
-        <v>37.05922361068303</v>
+        <v>327.2727798465985</v>
       </c>
       <c r="E10" t="n">
-        <v>37.05922361068303</v>
+        <v>327.2727798465985</v>
       </c>
       <c r="F10" t="n">
-        <v>37.05922361068303</v>
+        <v>327.2727798465985</v>
       </c>
       <c r="G10" t="n">
-        <v>37.05922361068303</v>
+        <v>158.6659348419819</v>
       </c>
       <c r="H10" t="n">
-        <v>37.05922361068303</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="I10" t="n">
-        <v>37.05922361068303</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132042</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K10" t="n">
         <v>120.2325654469302</v>
@@ -4969,43 +4969,43 @@
         <v>305.0655603477486</v>
       </c>
       <c r="M10" t="n">
-        <v>510.3351610669865</v>
+        <v>453.8659557427017</v>
       </c>
       <c r="N10" t="n">
-        <v>716.1585259030908</v>
+        <v>659.689320578806</v>
       </c>
       <c r="O10" t="n">
-        <v>833.7842159674051</v>
+        <v>833.7842159674049</v>
       </c>
       <c r="P10" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660208</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R10" t="n">
-        <v>828.7538312854235</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S10" t="n">
-        <v>621.3135465378289</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T10" t="n">
-        <v>621.3135465378289</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U10" t="n">
-        <v>621.3135465378289</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V10" t="n">
-        <v>379.0832958898438</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="W10" t="n">
-        <v>136.8530452418588</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="X10" t="n">
-        <v>136.8530452418588</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.05922361068303</v>
+        <v>496.2089627745054</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1939.756805160359</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1570.794288219947</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1212.528589613197</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.528589613197</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>801.5426848235895</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2352036347372</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810102</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511625</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076837</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951452</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050964</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746739</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889756</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612705</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767229</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755812</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4156.16151059908</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3953.532414632629</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3700.063135423758</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3442.730390731487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>3089.961735461372</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X11" t="n">
-        <v>2716.495977200293</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y11" t="n">
-        <v>2326.356645224481</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5579923844783</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1049631033513</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1705534421001</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9330984366445</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3985404635295</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.4447347764803</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511625</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>216.557510983586</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334506</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277781</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
-        <v>973.3971899277781</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1551.252537854181</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.694692760353</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2555.644190323788</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2433.808769274326</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.815512932119</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.774593334977</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.622485103235</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.385128375033</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5336281695</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.773329404546</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.368901028491</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C13" t="n">
-        <v>927.4327181005837</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D13" t="n">
-        <v>777.3160786882479</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E13" t="n">
-        <v>629.4029851058548</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="F13" t="n">
-        <v>482.5130376079444</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="G13" t="n">
-        <v>315.1533397258817</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9869683152618</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511625</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8801783755868</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>396.9405013869778</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>763.5004667042035</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1160.375677726126</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1553.248699711515</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.114228341785</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2173.396928727846</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2279.168624967671</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2204.76693339754</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2019.061021685725</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.760544521729</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1509.676394306094</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.01736585873</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1278.01736585873</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>1278.01736585873</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.01736585873</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1958.885600665793</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C14" t="n">
-        <v>1589.923083725381</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1231.657385118631</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
-        <v>845.8691325203863</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
         <v>801.5426848235895</v>
@@ -5273,55 +5273,55 @@
         <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="T14" t="n">
-        <v>4046.391352789362</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="U14" t="n">
-        <v>3792.922073580491</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="V14" t="n">
-        <v>3461.85918623692</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W14" t="n">
-        <v>3109.090530966806</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X14" t="n">
-        <v>2735.624772705726</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.485440729914</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511626</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L15" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M15" t="n">
-        <v>875.4343898856998</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O15" t="n">
         <v>1959.694692760353</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914589</v>
+        <v>421.276289785086</v>
       </c>
       <c r="C16" t="n">
-        <v>235.097048387452</v>
+        <v>252.340106857179</v>
       </c>
       <c r="D16" t="n">
-        <v>84.98040897511626</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E16" t="n">
-        <v>84.98040897511626</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>84.98040897511626</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755868</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2105.193170279352</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1884.892693115356</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306094</v>
+        <v>1595.808542899721</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100207</v>
+        <v>1341.124054693834</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632461</v>
+        <v>1051.706884656873</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652287</v>
+        <v>823.7173337588558</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216986</v>
+        <v>602.9247546153257</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5519,7 +5519,7 @@
         <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746738</v>
@@ -5528,7 +5528,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
@@ -5540,7 +5540,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5592,25 +5592,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.998855404251</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2530.879212293268</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
         <v>2530.879212293268</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F19" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
@@ -5674,10 +5674,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5692,13 +5692,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796689</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K20" t="n">
         <v>766.6831886951452</v>
@@ -5768,34 +5768,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L21" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1968.593900456</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O21" t="n">
-        <v>2474.998855404251</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2474.998855404251</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040894</v>
@@ -5929,13 +5929,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127668</v>
@@ -5969,70 +5969,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551798</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N24" t="n">
         <v>1428.524759781582</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443612</v>
@@ -6154,10 +6154,10 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6169,7 +6169,7 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
@@ -6187,10 +6187,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
@@ -6224,7 +6224,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K26" t="n">
         <v>766.6831886951452</v>
@@ -6233,10 +6233,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6257,7 +6257,7 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
         <v>3496.71823738206</v>
@@ -6312,19 +6312,19 @@
         <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.137679823382</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6364,16 +6364,16 @@
         <v>735.8557341477724</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897932</v>
@@ -6382,43 +6382,43 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042795</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443622</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902797</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
         <v>1407.504522645592</v>
@@ -6446,28 +6446,28 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
@@ -6479,34 +6479,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039792</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
@@ -6625,13 +6625,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6658,13 +6658,13 @@
         <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6704,13 +6704,13 @@
         <v>766.6831886951452</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>421.6357602913724</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>875.4343898856998</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898856998</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6841,28 +6841,28 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,10 +6871,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6886,7 +6886,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6917,70 +6917,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477725</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.294345074945</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897937</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902788</v>
@@ -7114,31 +7114,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511626</v>
@@ -7208,10 +7208,10 @@
         <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
         <v>2834.342818501803</v>
@@ -7251,22 +7251,22 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334506</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277781</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538068</v>
+        <v>1390.738552529598</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.17100246447</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.998855404251</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
@@ -7339,10 +7339,10 @@
         <v>857.3827676902789</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7351,13 +7351,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
         <v>1784.429621497864</v>
@@ -7397,10 +7397,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511626</v>
@@ -7445,16 +7445,16 @@
         <v>3795.851627400164</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
-        <v>165.6257438946542</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>468.6667932445187</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>922.4654228388462</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1471.383887449135</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897936</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7591,13 +7591,13 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
@@ -7646,13 +7646,13 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
@@ -7679,10 +7679,10 @@
         <v>4017.391409283567</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7719,7 +7719,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
         <v>84.98040897511626</v>
@@ -7728,25 +7728,25 @@
         <v>84.98040897511626</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511626</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448894</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551787</v>
+        <v>1390.738552529598</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781581</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729832</v>
+        <v>2474.998855404251</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7786,16 +7786,16 @@
         <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
@@ -7807,10 +7807,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
@@ -7828,13 +7828,13 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
         <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>84.00840552892659</v>
+        <v>35.88761455449961</v>
       </c>
       <c r="K5" t="n">
-        <v>74.65579442398439</v>
+        <v>2.535202781535844</v>
       </c>
       <c r="L5" t="n">
-        <v>81.97956563441812</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>29.58998355183869</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>53.16688210788618</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>65.2208763744197</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>66.82275521857133</v>
+        <v>91.94803906999336</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.5989604545344</v>
+        <v>115.3561844878698</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>96.8012712276951</v>
+        <v>80.36321829654422</v>
       </c>
       <c r="K6" t="n">
-        <v>39.06080134589708</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.731622200576368</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>10.82371888938308</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>17.16121239387842</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.65376092414861</v>
+        <v>23.17222213514196</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>97.18768225025185</v>
+        <v>39.88148211089992</v>
       </c>
       <c r="L7" t="n">
-        <v>58.63755502344361</v>
+        <v>127.4828345290357</v>
       </c>
       <c r="M7" t="n">
-        <v>58.53388521652073</v>
+        <v>125.3237740485312</v>
       </c>
       <c r="N7" t="n">
-        <v>75.84214346300411</v>
+        <v>116.9430046901382</v>
       </c>
       <c r="O7" t="n">
-        <v>93.72573863272251</v>
+        <v>132.3666573282725</v>
       </c>
       <c r="P7" t="n">
-        <v>103.4593871884774</v>
+        <v>44.94168568471962</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>58.49750737927812</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8.287118509957693</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>66.78462588923554</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>121.4700595717842</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
-        <v>106.0020650282213</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>403.5012397718406</v>
+        <v>14.87542442342333</v>
       </c>
       <c r="H2" t="n">
-        <v>335.0985819152745</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>194.0019016021898</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2252865051633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>180.6761387735845</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>375.494959657546</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>72.99284122478682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.335964134057349</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>22.79520516093822</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>362.9928625218826</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>91.93034877516568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.0582761051013</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.20019922266104</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>85.27082710769089</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1153234.546287571</v>
+        <v>1288832.920702722</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1339337.069063417</v>
+        <v>1329267.579264867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1234718.362667257</v>
+        <v>1099119.988252107</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103250.9322274938</v>
+        <v>115963.2798289142</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="E2" t="n">
-        <v>115011.4772926966</v>
+        <v>102299.1296912762</v>
       </c>
       <c r="F2" t="n">
-        <v>115011.4772926966</v>
+        <v>115011.4772926965</v>
       </c>
       <c r="G2" t="n">
+        <v>123156.2654796427</v>
+      </c>
+      <c r="H2" t="n">
         <v>123156.2654796426</v>
-      </c>
-      <c r="H2" t="n">
-        <v>123156.2654796427</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796425</v>
@@ -26338,13 +26338,13 @@
         <v>123156.2654796426</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796427</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
@@ -26366,40 +26366,40 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>171151.3438715915</v>
+        <v>325066.2934146305</v>
       </c>
       <c r="D3" t="n">
-        <v>330566.1828097466</v>
+        <v>185275.10023348</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428754</v>
+        <v>575366.1973577663</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>215052.1096963085</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177099</v>
+        <v>25288.16188177118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7144.153280225589</v>
+        <v>27449.87862538898</v>
       </c>
       <c r="L3" t="n">
-        <v>78955.96516982076</v>
+        <v>58987.68498995091</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692802</v>
+        <v>147427.4683834173</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>56542.29359578645</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316573.0176407668</v>
+        <v>364944.9474012262</v>
       </c>
       <c r="C4" t="n">
-        <v>350239.0167037608</v>
+        <v>309257.3780148559</v>
       </c>
       <c r="D4" t="n">
         <v>255177.1421685144</v>
       </c>
       <c r="E4" t="n">
-        <v>8669.990103765376</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
         <v>8669.990103765376</v>
       </c>
       <c r="G4" t="n">
-        <v>39739.87518598534</v>
+        <v>39739.87518598545</v>
       </c>
       <c r="H4" t="n">
-        <v>39739.87518598534</v>
+        <v>39739.87518598544</v>
       </c>
       <c r="I4" t="n">
-        <v>39739.87518598531</v>
+        <v>39739.87518598545</v>
       </c>
       <c r="J4" t="n">
-        <v>39739.87518598537</v>
+        <v>39739.87518598533</v>
       </c>
       <c r="K4" t="n">
         <v>39739.87518598534</v>
       </c>
       <c r="L4" t="n">
+        <v>39739.87518598538</v>
+      </c>
+      <c r="M4" t="n">
         <v>39739.87518598537</v>
       </c>
-      <c r="M4" t="n">
-        <v>39739.87518598531</v>
-      </c>
       <c r="N4" t="n">
-        <v>39739.87518598531</v>
+        <v>39739.87518598534</v>
       </c>
       <c r="O4" t="n">
-        <v>39739.87518598531</v>
+        <v>39739.87518598534</v>
       </c>
       <c r="P4" t="n">
         <v>39739.8751859853</v>
@@ -26470,13 +26470,13 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>41515.23339280498</v>
+        <v>49386.74083816432</v>
       </c>
       <c r="D5" t="n">
         <v>61145.70223437333</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.99600060703</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060703</v>
@@ -26485,22 +26485,22 @@
         <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215531</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351693.3044794499</v>
+        <v>-387472.7697326677</v>
       </c>
       <c r="C6" t="n">
-        <v>-439749.3284885149</v>
+        <v>-560554.1467880083</v>
       </c>
       <c r="D6" t="n">
-        <v>-523732.7617329918</v>
+        <v>-378441.6791567252</v>
       </c>
       <c r="E6" t="n">
-        <v>-781749.1332545512</v>
+        <v>-556271.5423297563</v>
       </c>
       <c r="F6" t="n">
-        <v>13892.49118832416</v>
+        <v>-201295.3649777668</v>
       </c>
       <c r="G6" t="n">
-        <v>-36978.20569026899</v>
+        <v>-36978.20569026926</v>
       </c>
       <c r="H6" t="n">
-        <v>-11690.04380849795</v>
+        <v>-11690.04380849813</v>
       </c>
       <c r="I6" t="n">
-        <v>-11690.04380849823</v>
+        <v>-11690.04380849825</v>
       </c>
       <c r="J6" t="n">
+        <v>-11690.04380849793</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-39139.92243388698</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-70677.72879844908</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-159117.5121919155</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-68232.3374042846</v>
+      </c>
+      <c r="O6" t="n">
         <v>-11690.0438084981</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-18834.19708872358</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-90646.00897831892</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-216647.1668777784</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-11690.04380849811</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-11690.04380849797</v>
       </c>
       <c r="P6" t="n">
         <v>-11690.04380849809</v>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221389</v>
@@ -26738,13 +26738,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>284.3998041289883</v>
+        <v>425.4333599090583</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1278.159870620123</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1278.159870620123</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067499</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="E4" t="n">
-        <v>1062.255112188953</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1056725656977</v>
+        <v>319.1392283457676</v>
       </c>
       <c r="D3" t="n">
-        <v>309.0762962090768</v>
+        <v>168.0427404290068</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820582</v>
+        <v>496.300600255233</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>188.3831700268252</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067499</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="D4" t="n">
-        <v>212.0494339508302</v>
+        <v>133.1518035338267</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474478</v>
+        <v>591.5935072607874</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067479</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508304</v>
+        <v>133.1518035338265</v>
       </c>
       <c r="M4" t="n">
-        <v>822.447164047448</v>
+        <v>591.5935072607874</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>230.8536567866607</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067499</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508302</v>
+        <v>133.1518035338267</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474478</v>
+        <v>591.5935072607874</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>11.37418465158277</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3114678604996</v>
+        <v>70.63532908691505</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27594,7 +27594,7 @@
         <v>286.3085741960093</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.2991199992028</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>306.9363080435006</v>
       </c>
       <c r="H5" t="n">
-        <v>327.7658192251702</v>
+        <v>215.3032026450992</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3982073646458</v>
+        <v>144.5401323527417</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.29179291181111</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>179.5525290586455</v>
+        <v>170.0469532488477</v>
       </c>
       <c r="T5" t="n">
-        <v>190.3324704786839</v>
+        <v>215.6090775721639</v>
       </c>
       <c r="U5" t="n">
-        <v>223.495673453522</v>
+        <v>251.20883011872</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>242.5848241097346</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>59.87703904218891</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>38.41306778570545</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7317892826313</v>
+        <v>37.06245338709063</v>
       </c>
       <c r="H6" t="n">
-        <v>106.3274407582697</v>
+        <v>103.3976682127253</v>
       </c>
       <c r="I6" t="n">
-        <v>68.33494924374943</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.41853102564777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>160.3205940237787</v>
+        <v>154.685904318792</v>
       </c>
       <c r="T6" t="n">
-        <v>197.6990360533637</v>
+        <v>196.4763017348553</v>
       </c>
       <c r="U6" t="n">
-        <v>198.1426226349986</v>
+        <v>225.8811792470254</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>223.9364689702446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>181.323285904331</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.0734659912623</v>
+        <v>73.17583557425887</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4781272526524</v>
+        <v>167.2238044471473</v>
       </c>
       <c r="H7" t="n">
-        <v>157.6674510576338</v>
+        <v>155.4062901141435</v>
       </c>
       <c r="I7" t="n">
-        <v>140.0276134180994</v>
+        <v>25.7232884412329</v>
       </c>
       <c r="J7" t="n">
-        <v>29.34202204548727</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.76797352907063</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>154.2336957833666</v>
+        <v>36.14227302997956</v>
       </c>
       <c r="S7" t="n">
-        <v>215.0789845203285</v>
+        <v>210.6468316280269</v>
       </c>
       <c r="T7" t="n">
-        <v>225.754312248927</v>
+        <v>224.6676602617691</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2910556052651</v>
+        <v>286.2771834522375</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8084430109762</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.8261391614198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219754</v>
       </c>
       <c r="C8" t="n">
-        <v>125.4649436295024</v>
+        <v>173.8430007356182</v>
       </c>
       <c r="D8" t="n">
-        <v>114.8750934791778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27910,16 +27910,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032862977</v>
       </c>
       <c r="W8" t="n">
-        <v>109.4330205759078</v>
+        <v>109.4330205759079</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>194.8080476206641</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>18.80175613614202</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>46.39617375058657</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>32.32145255024669</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>12.32969518232281</v>
+        <v>12.32969518232287</v>
       </c>
       <c r="W10" t="n">
-        <v>46.71505019508581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.7887699372308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605491</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605491</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605491</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605491</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605491</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221321</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221253</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221264</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221241</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605491</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221253</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30751,13 +30751,13 @@
         <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221241</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
         <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="X44" t="n">
         <v>31.61020235221389</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143315795493419</v>
+        <v>1.710284863956012</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70898289059699</v>
+        <v>17.51545486298951</v>
       </c>
       <c r="I5" t="n">
-        <v>44.0776822057601</v>
+        <v>65.9357572176642</v>
       </c>
       <c r="J5" t="n">
-        <v>97.0374989977597</v>
+        <v>145.1582899721867</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4340566209962</v>
+        <v>217.5546482634447</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4238073973279</v>
+        <v>269.8957786687386</v>
       </c>
       <c r="M5" t="n">
-        <v>200.756249675434</v>
+        <v>300.3110571181163</v>
       </c>
       <c r="N5" t="n">
-        <v>204.0046956793797</v>
+        <v>305.1704039878313</v>
       </c>
       <c r="O5" t="n">
-        <v>192.635849237942</v>
+        <v>288.1637588718687</v>
       </c>
       <c r="P5" t="n">
-        <v>164.4102405366982</v>
+        <v>245.9411012929546</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.4652436105901</v>
+        <v>184.6915246025299</v>
       </c>
       <c r="R5" t="n">
-        <v>71.81881083866358</v>
+        <v>107.4336815854769</v>
       </c>
       <c r="S5" t="n">
-        <v>26.05330868980632</v>
+        <v>38.97311633739766</v>
       </c>
       <c r="T5" t="n">
-        <v>5.004864894772446</v>
+        <v>7.486771991967445</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09146526363947353</v>
+        <v>0.1368227891164809</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6117278805793334</v>
+        <v>0.9150830760308046</v>
       </c>
       <c r="H6" t="n">
-        <v>5.90800347822672</v>
+        <v>8.837776023771193</v>
       </c>
       <c r="I6" t="n">
-        <v>21.06168360766565</v>
+        <v>31.50614976685007</v>
       </c>
       <c r="J6" t="n">
-        <v>57.79486962964658</v>
+        <v>86.45528307359459</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78063762846192</v>
+        <v>147.7658491676585</v>
       </c>
       <c r="L6" t="n">
-        <v>132.8227575792978</v>
+        <v>198.6894196443201</v>
       </c>
       <c r="M6" t="n">
-        <v>154.9978932502986</v>
+        <v>231.8611811504367</v>
       </c>
       <c r="N6" t="n">
-        <v>159.1002262740083</v>
+        <v>237.9978566910117</v>
       </c>
       <c r="O6" t="n">
-        <v>145.5456242885399</v>
+        <v>217.7215422168555</v>
       </c>
       <c r="P6" t="n">
-        <v>116.8131950204518</v>
+        <v>174.7407322992508</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.08652735254789</v>
+        <v>116.8095519508796</v>
       </c>
       <c r="R6" t="n">
-        <v>37.98078893632038</v>
+        <v>56.81542115917576</v>
       </c>
       <c r="S6" t="n">
-        <v>11.3625770800591</v>
+        <v>16.99726678504586</v>
       </c>
       <c r="T6" t="n">
-        <v>2.465692641457926</v>
+        <v>3.688426959966268</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04024525530127195</v>
+        <v>0.06020283394939506</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5128521058063723</v>
+        <v>0.7671749113114165</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55972144980575</v>
+        <v>6.820882393296053</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42286150915891</v>
+        <v>23.07104187834697</v>
       </c>
       <c r="J7" t="n">
-        <v>36.25864388051052</v>
+        <v>54.23926622971714</v>
       </c>
       <c r="K7" t="n">
-        <v>59.58409011095851</v>
+        <v>89.13177605963546</v>
       </c>
       <c r="L7" t="n">
-        <v>76.24712125779467</v>
+        <v>114.057986359881</v>
       </c>
       <c r="M7" t="n">
-        <v>80.39189873108432</v>
+        <v>120.2581545067523</v>
       </c>
       <c r="N7" t="n">
-        <v>78.48035906398792</v>
+        <v>117.3986843827735</v>
       </c>
       <c r="O7" t="n">
-        <v>72.48931400979527</v>
+        <v>108.436686555181</v>
       </c>
       <c r="P7" t="n">
-        <v>62.02713105134522</v>
+        <v>92.786318364428</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.94437042347723</v>
+        <v>64.2404373462678</v>
       </c>
       <c r="R7" t="n">
-        <v>23.05969559380288</v>
+        <v>34.4949737395115</v>
       </c>
       <c r="S7" t="n">
-        <v>8.937613516643776</v>
+        <v>13.36976640894532</v>
       </c>
       <c r="T7" t="n">
-        <v>2.191277179354499</v>
+        <v>3.277929166512415</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02797375122580216</v>
+        <v>0.04184590425335004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171345</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879731</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>198.095511204351</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383707</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171638</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869754</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654299</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117594</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>865.750990556568</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829628</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972013</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>322.7706933581561</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110797</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734508</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031963</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533502</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781103</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115857</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247272</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155585</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160632</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>555.164077683002</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892352</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691328</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486998</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.08140491603672</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.304878455216615</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>20.49246481092592</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051423</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838147</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151667</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692049</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754554</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696483</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246177</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>278.7645724381985</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636386</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>103.6357167227398</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>40.167745442275</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925537</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>482.189944342479</v>
+        <v>554.7018671605758</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>524.9860796892352</v>
@@ -32312,7 +32312,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
         <v>443.9435090247272</v>
@@ -32324,16 +32324,16 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578285</v>
+        <v>559.3781234260257</v>
       </c>
       <c r="P18" t="n">
-        <v>190.4192123527318</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877214</v>
@@ -32549,7 +32549,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
         <v>443.9435090247272</v>
@@ -32561,19 +32561,19 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160632</v>
+        <v>573.1387203886718</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.4265790244231</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>151.0727449683532</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160632</v>
+        <v>591.0665301174793</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
         <v>170.6946332877214</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33032,22 +33032,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>254.1392278303028</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160632</v>
+        <v>548.1235910649142</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
         <v>443.9435090247272</v>
@@ -33272,16 +33272,16 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>706.0448840335908</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,25 +33500,25 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>344.9911857499008</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247272</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>169.5095981964492</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115857</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247272</v>
@@ -33986,10 +33986,10 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>602.670171575069</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764895</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>208.2975609288262</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
         <v>443.9435090247272</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
@@ -34369,28 +34369,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K44" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654297</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565681</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P44" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110797</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463117</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879672</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160633</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578287</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892353</v>
+        <v>215.4343416764895</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877215</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T45" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
         <v>0.1808716798047345</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34533,16 +34533,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636386</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227501</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>26.63695806175884</v>
+        <v>34.12936369875132</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>69.96482389084352</v>
       </c>
       <c r="N5" t="n">
-        <v>27.75851419067499</v>
+        <v>75.7573403912404</v>
       </c>
       <c r="O5" t="n">
-        <v>27.75851419067499</v>
+        <v>58.06554745018198</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.75851419067499</v>
+        <v>77.74201921595025</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.75851419067499</v>
+        <v>39.98087470347211</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.924410193299479</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>60.13503986444593</v>
       </c>
       <c r="M6" t="n">
-        <v>12.86385932828028</v>
+        <v>89.7271472284184</v>
       </c>
       <c r="N6" t="n">
-        <v>27.75851419067499</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="O6" t="n">
-        <v>13.77309873347854</v>
+        <v>75.12529777241107</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40.76632488492052</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="N7" t="n">
-        <v>26.63695806175884</v>
+        <v>106.6561446076784</v>
       </c>
       <c r="O7" t="n">
-        <v>27.75851419067499</v>
+        <v>102.3468054316106</v>
       </c>
       <c r="P7" t="n">
-        <v>27.75851419067499</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>239.8079481415052</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,10 +35267,10 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>118.0746210627848</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>89.75123316395977</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>150.3034296918718</v>
       </c>
       <c r="N10" t="n">
         <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>118.8138283477922</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
         <v>126.7147238369855</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116844</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721833</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169881</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381572</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151685</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348813</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276933</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227518</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>107.185155544024</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.906163644919</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503682</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356843</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327299</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>412.5678332385575</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>391.011672274905</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831112</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714192</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>245.5154777892838</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>370.262591229521</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>400.884051537296</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>396.8414363488769</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>350.3692208386574</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>276.043131703092</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.8400972119442</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>340.0559104204607</v>
+        <v>412.5678332385575</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>391.011672274905</v>
@@ -35890,7 +35890,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381561</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151685</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
         <v>306.1020700503682</v>
@@ -35972,16 +35972,16 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133841</v>
+        <v>416.7818789815813</v>
       </c>
       <c r="P18" t="n">
-        <v>56.44480493840157</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
         <v>25.01512932375749</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908713</v>
@@ -36060,7 +36060,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381572</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151685</v>
@@ -36139,7 +36139,7 @@
         <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227503</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
         <v>107.185155544024</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
         <v>306.1020700503682</v>
@@ -36209,19 +36209,19 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327299</v>
+        <v>441.7970083053385</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.44480493840157</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908713</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>8.938711046334902</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327299</v>
+        <v>459.724818034146</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133841</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375749</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381572</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151685</v>
@@ -36680,22 +36680,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>112.0051939082845</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327299</v>
+        <v>416.7818789815809</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36765,10 +36765,10 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36847,7 +36847,7 @@
         <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.665444827692</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227518</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
         <v>306.1020700503682</v>
@@ -36920,16 +36920,16 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>574.7031719502576</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37148,25 +37148,25 @@
         <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>207.1497467755418</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P33" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503682</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>38.16788611311586</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P36" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.906163644919</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503682</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0739271306246</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>81.45993426215921</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895099</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.45993426215952</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
         <v>306.1020700503682</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895099</v>
@@ -38017,25 +38017,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
         <v>107.185155544024</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664375</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.69227063273</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133842</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749051</v>
+        <v>81.45993426215921</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375752</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895099</v>
